--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段一/导入模版/教师信息.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段一/导入模版/教师信息.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\因卓教育阶段一\导入模版\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
   </bookViews>
   <sheets>
-    <sheet name="班级信息" sheetId="5" r:id="rId1"/>
-    <sheet name="学生信息" sheetId="4" r:id="rId2"/>
-    <sheet name="教师信息" sheetId="3" r:id="rId3"/>
+    <sheet name="教师信息" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">教师信息!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">教师信息!$A$1:$H$1</definedName>
     <definedName name="初中部">教师信息!$N$7:$N$15</definedName>
     <definedName name="高中部">教师信息!$O$7:$O$15</definedName>
     <definedName name="小学部">教师信息!$M$7:$M$9</definedName>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,166 +209,12 @@
     <t>610631198609071245</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>学籍号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入学年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班主任工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学部</t>
-  </si>
-  <si>
-    <t>二年级</t>
-  </si>
-  <si>
-    <t>三年级</t>
-  </si>
-  <si>
-    <t>六年级</t>
-  </si>
-  <si>
-    <t>初中部</t>
-  </si>
-  <si>
-    <t>初二</t>
-  </si>
-  <si>
-    <t>高中部</t>
-  </si>
-  <si>
-    <t>高一</t>
-  </si>
-  <si>
-    <t>高二</t>
-  </si>
-  <si>
-    <t>高三</t>
-  </si>
-  <si>
-    <t>一年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,7 +236,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,12 +252,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -459,12 +302,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,11 +313,19 @@
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,7 +367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,9 +399,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,6 +451,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -760,369 +644,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="H5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="H6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="H7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="H10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="H11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="H12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="8:9">
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="8:9">
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="8:9">
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="8:9">
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="8:9">
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="8:9">
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="8:9">
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="8:9">
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="8:9">
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="8:9">
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="8:9">
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="8:9">
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="8:9">
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="8:9">
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
-      <formula1>COUNTIF($C$2:$C$201,C2)=1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O201"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" style="2" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.09765625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +695,7 @@
       <c r="N1"/>
       <c r="O1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1184,7 +726,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1215,7 +757,7 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1230,7 +772,7 @@
       <c r="N4"/>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1243,7 +785,7 @@
       <c r="N5"/>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1262,7 +804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1281,7 +823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1300,7 +842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1319,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1336,7 +878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1353,7 +895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1370,7 +912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1387,7 +929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1404,7 +946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1421,7 +963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1431,7 +973,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1441,7 +983,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1451,7 +993,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1461,7 +1003,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1471,7 +1013,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1481,7 +1023,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1491,7 +1033,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1501,7 +1043,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1511,7 +1053,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1521,7 +1063,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1531,7 +1073,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1541,7 +1083,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1551,7 +1093,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1561,7 +1103,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1571,7 +1113,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1581,7 +1123,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1591,7 +1133,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1601,7 +1143,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1611,7 +1153,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1621,7 +1163,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1631,7 +1173,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1641,7 +1183,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1651,7 +1193,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1661,7 +1203,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1671,7 +1213,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1681,7 +1223,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1691,7 +1233,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1701,7 +1243,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1711,7 +1253,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1721,7 +1263,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1731,7 +1273,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1741,7 +1283,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1751,7 +1293,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1761,7 +1303,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1771,7 +1313,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1781,7 +1323,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1791,7 +1333,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1801,7 +1343,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1811,7 +1353,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1821,7 +1363,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1831,7 +1373,7 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1841,7 +1383,7 @@
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1851,7 +1393,7 @@
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1861,7 +1403,7 @@
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -1871,7 +1413,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1881,7 +1423,7 @@
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1891,7 +1433,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1901,7 +1443,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -1911,7 +1453,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1921,7 +1463,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -1931,7 +1473,7 @@
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1941,7 +1483,7 @@
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -1951,7 +1493,7 @@
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1961,7 +1503,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -1971,7 +1513,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1981,7 +1523,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -1991,7 +1533,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2001,7 +1543,7 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2011,7 +1553,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2021,7 +1563,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2031,7 +1573,7 @@
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2041,7 +1583,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2051,7 +1593,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2061,7 +1603,7 @@
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2071,7 +1613,7 @@
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2081,7 +1623,7 @@
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2091,7 +1633,7 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2101,7 +1643,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2111,7 +1653,7 @@
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2121,7 +1663,7 @@
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2131,7 +1673,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2141,7 +1683,7 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2151,7 +1693,7 @@
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2161,7 +1703,7 @@
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2171,7 +1713,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2181,7 +1723,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2191,7 +1733,7 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2201,7 +1743,7 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2211,7 +1753,7 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2221,7 +1763,7 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2231,7 +1773,7 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2241,7 +1783,7 @@
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2251,7 +1793,7 @@
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2261,7 +1803,7 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2271,7 +1813,7 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2281,7 +1823,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -2291,7 +1833,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -2301,7 +1843,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -2311,7 +1853,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -2321,7 +1863,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -2331,7 +1873,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -2341,7 +1883,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -2351,7 +1893,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -2361,7 +1903,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -2371,7 +1913,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -2381,7 +1923,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -2391,7 +1933,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -2401,7 +1943,7 @@
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -2411,7 +1953,7 @@
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -2421,7 +1963,7 @@
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -2431,7 +1973,7 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -2441,7 +1983,7 @@
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -2451,7 +1993,7 @@
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -2461,7 +2003,7 @@
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -2471,7 +2013,7 @@
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -2481,7 +2023,7 @@
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -2491,7 +2033,7 @@
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -2501,7 +2043,7 @@
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -2511,7 +2053,7 @@
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -2521,7 +2063,7 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -2531,7 +2073,7 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -2541,7 +2083,7 @@
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -2551,7 +2093,7 @@
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -2561,7 +2103,7 @@
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -2571,7 +2113,7 @@
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -2581,7 +2123,7 @@
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -2591,7 +2133,7 @@
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -2601,7 +2143,7 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -2611,7 +2153,7 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -2621,7 +2163,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -2631,7 +2173,7 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -2641,7 +2183,7 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -2651,7 +2193,7 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -2661,7 +2203,7 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -2671,7 +2213,7 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -2681,7 +2223,7 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -2691,7 +2233,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -2701,7 +2243,7 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -2711,7 +2253,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -2721,7 +2263,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -2731,7 +2273,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -2741,7 +2283,7 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -2751,7 +2293,7 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -2761,7 +2303,7 @@
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -2771,7 +2313,7 @@
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -2781,7 +2323,7 @@
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -2791,7 +2333,7 @@
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -2801,7 +2343,7 @@
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -2811,7 +2353,7 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -2821,7 +2363,7 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -2831,7 +2373,7 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -2841,7 +2383,7 @@
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -2851,7 +2393,7 @@
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -2861,7 +2403,7 @@
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -2871,7 +2413,7 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -2881,7 +2423,7 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -2891,7 +2433,7 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -2901,7 +2443,7 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -2911,7 +2453,7 @@
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -2921,7 +2463,7 @@
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -2931,7 +2473,7 @@
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -2941,7 +2483,7 @@
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -2951,7 +2493,7 @@
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -2961,7 +2503,7 @@
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -2971,7 +2513,7 @@
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -2981,7 +2523,7 @@
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -2991,7 +2533,7 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -3001,7 +2543,7 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -3011,7 +2553,7 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -3021,7 +2563,7 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -3031,7 +2573,7 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -3041,7 +2583,7 @@
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -3051,7 +2593,7 @@
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -3061,7 +2603,7 @@
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -3071,7 +2613,7 @@
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -3081,7 +2623,7 @@
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -3091,7 +2633,7 @@
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -3101,7 +2643,7 @@
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -3111,7 +2653,7 @@
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -3121,7 +2663,7 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -3131,7 +2673,7 @@
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -3141,7 +2683,7 @@
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -3151,7 +2693,7 @@
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -3161,7 +2703,7 @@
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -3171,7 +2713,7 @@
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -3181,7 +2723,7 @@
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -3191,7 +2733,7 @@
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -3201,7 +2743,7 @@
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -3211,7 +2753,7 @@
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -3221,7 +2763,7 @@
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -3231,7 +2773,7 @@
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -3241,7 +2783,7 @@
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -3251,7 +2793,7 @@
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -3261,7 +2803,7 @@
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -3271,7 +2813,7 @@
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
